--- a/data/trans_bre/P23_3_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_3_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>5,12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-3,75</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>5,77</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,56%</t>
+          <t>12,64</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,57%</t>
+          <t>31,76%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>-17,72%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>44,09%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>95,39%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 9,96</t>
+          <t>-3,45; 14,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 6,13</t>
+          <t>-21,52; 5,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 7,68</t>
+          <t>-1,58; 13,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-17,96; 75,44</t>
+          <t>3,93; 21,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-40,45; 48,62</t>
+          <t>-17,12; 113,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-38,74; 69,36</t>
+          <t>-63,74; 37,3</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-9,75; 158,42</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>24,02; 243,68</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,95</t>
+          <t>5,54</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,16</t>
+          <t>11,78</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,04</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>29,24%</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>63,94%</t>
+          <t>33,21%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,55%</t>
+          <t>118,02%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>15,12%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>16,9%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 12,81</t>
+          <t>-3,5; 14,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 14,96</t>
+          <t>4,35; 20,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 8,9</t>
+          <t>-6,3; 9,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 97,89</t>
+          <t>-5,41; 11,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 163,25</t>
+          <t>-15,51; 130,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-21,48; 107,16</t>
+          <t>26,47; 306,86</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-38,27; 121,04</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-26,65; 105,21</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>5,03</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,3</t>
+          <t>5,43</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-7,02</t>
+          <t>-16,27</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>21,77%</t>
+          <t>-7,2</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>41,07%</t>
+          <t>38,23%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-46,19%</t>
+          <t>22,98%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-66,75%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-45,75%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 19,85</t>
+          <t>-14,73; 23,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 20,82</t>
+          <t>-20,53; 29,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-21,35; 3,51</t>
+          <t>-41,28; 5,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-45,74; 178,79</t>
+          <t>-29,08; 9,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-43,53; 259,54</t>
+          <t>-61,97; 566,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-85,51; 57,56</t>
+          <t>-54,25; 296,01</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-95,31; 108,97</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-99,07; 225,93</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>5,37</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,98%</t>
+          <t>6,78</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,95%</t>
+          <t>33,55%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>20,93%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>14,2%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>46,21%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 8,79</t>
+          <t>0,06; 11,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 8,75</t>
+          <t>-5,33; 9,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 5,23</t>
+          <t>-3,96; 7,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 59,8</t>
+          <t>0,82; 13,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 70,36</t>
+          <t>-0,15; 89,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-26,38; 45,75</t>
+          <t>-25,9; 71,15</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-22,72; 66,42</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3,48; 108,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P23_3_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_3_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>5,12</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-3,75</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,77</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>12,64</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>31,76%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-17,72%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>44,09%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>95,39%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>7.409632547812187</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-2.775523628105014</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>5.836920552918556</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>13.50742500767578</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.4541693411070397</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.1351678494346616</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.4318375106151719</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.021146698588714</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-3,45; 14,02</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-21,52; 5,57</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,58; 13,53</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>3,93; 21,21</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-17,12; 113,86</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-63,74; 37,3</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-9,75; 158,42</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>24,02; 243,68</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.555965939704714</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-16.77928582991396</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-2.016365894523272</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>4.969164177145912</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.09105006718788315</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.5560841521795948</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.1281288485332728</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.2655070860836046</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>17.01121420654523</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>6.55067594538576</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>13.6900774242642</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>22.58707572561345</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>1.32472487708922</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.4307878944982879</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.524033952607149</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.511228766505071</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>5,54</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>11,78</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,87</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,72</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>33,21%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>118,02%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>15,12%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>16,9%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-3,5; 14,7</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>4,35; 20,24</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-6,3; 9,89</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-5,41; 11,83</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-15,51; 130,4</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>26,47; 306,86</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-38,27; 121,04</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-26,65; 105,21</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>5.088790353505404</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>12.09968516316345</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2.052348988620785</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2.735142848558059</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.2984732283371508</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>1.209049758473108</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.1662752165696917</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.1675186431030561</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>5,03</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>5,43</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-16,27</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-7,2</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>38,23%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>22,98%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-66,75%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-45,75%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-4.913542881183056</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>4.23245058316648</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-6.493042526255128</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-5.701051159316265</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.2272734771361764</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.2885999760642591</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.3736368618403083</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.2762135811830356</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-14,73; 23,25</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-20,53; 29,52</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-41,28; 5,32</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-29,08; 9,32</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-61,97; 566,74</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-54,25; 296,01</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-95,31; 108,97</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-99,07; 225,93</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>14.72621885147824</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>20.60559453937768</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>10.16593351393712</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>12.83689325898535</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.336322463541861</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>3.28384137096054</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.308027984686781</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.108889298552205</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,197 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>5,37</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,51</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,98</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>6,78</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>33,55%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>20,93%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>14,2%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>46,21%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>4.970442361128653</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>4.800773438569705</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-17.59055779337801</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-5.867897858236887</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.4081935721506635</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.185527539032542</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.7114586927233058</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.3993981915413841</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,06; 11,4</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-5,33; 9,17</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-3,96; 7,41</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0,82; 13,27</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-0,15; 89,95</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-25,9; 71,15</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-22,72; 66,42</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>3,48; 108,61</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-13.25693101035138</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-22.50723335976554</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-43.85661887385832</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-27.1145408169876</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.6291005244125882</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.5591885215242626</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.9613387593671217</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.9812022761843269</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>23.13909638217852</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>28.73291337567562</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.129410553186591</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>10.11973917839199</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>5.850060584619402</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>2.673931788205451</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.6951092020223472</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>2.650995374643197</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>6.25072609660346</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>4.199249613572903</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.917517080966078</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>7.263817652778354</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.3860848296714783</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.2533042711709071</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.1357597961628385</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.4955663836641875</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.6484044252114349</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.709748331493031</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-4.151401040463265</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>1.236008563576308</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.02280338304016725</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.1714501509754248</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.2374673386717373</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.06828853701566309</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>12.5930417890665</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>9.994899087884818</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>7.504516692872275</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>13.66967237550038</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.9556379800759771</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.7890131544590546</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.6940001771287441</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.179239472531916</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1025,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
